--- a/data/sorted_asosiasi.xlsx
+++ b/data/sorted_asosiasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,300 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>frozenset({'Minuman'})</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic'})</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic'})</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>frozenset({'Minuman'})</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic'})</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic'})</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>frozenset({'Grease Cvt', 'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic'})</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic'})</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>frozenset({'Grease Cvt', 'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic', 'Grease Cvt'})</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6250000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.40625</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic', 'Grease Cvt'})</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3125000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.40625</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic'})</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>frozenset({'Grease Cvt'})</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frozenset({'Grease Cvt'})</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic'})</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>frozenset({'Grease Cvt'})</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>frozenset({'Grease Cvt'})</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3125000000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic', 'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>frozenset({'Grease Cvt'})</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.3125000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>frozenset({'Grease Cvt'})</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>frozenset({'Oli Mesin Matic', 'Oli Gardan'})</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
